--- a/result.xlsx
+++ b/result.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -388,9 +388,12 @@
         <v>df</v>
       </c>
       <c r="E1" t="str">
+        <v>f</v>
+      </c>
+      <c r="F1" t="str">
         <v>a.xlsx</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>b.xlsx</v>
       </c>
     </row>
@@ -404,6 +407,12 @@
       <c r="C2" t="str">
         <v>jksdkj</v>
       </c>
+      <c r="F2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" t="str">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -421,76 +430,166 @@
       <c r="E3" t="str">
         <v>df</v>
       </c>
+      <c r="F3" t="str">
+        <v>s1</v>
+      </c>
+      <c r="G3" t="str">
+        <v>d2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="F4" t="str">
+        <v>s3</v>
+      </c>
+      <c r="G4" t="str">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="F5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" t="str">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="F6" t="str">
+        <v>s5</v>
+      </c>
+      <c r="G6" t="str">
+        <v>d5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="F7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="str">
+        <v>d6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="F8" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="str">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="F9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G9" t="str">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="F10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G10" t="str">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="F11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G11" t="str">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="F12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G12" t="str">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="F13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G13" t="str">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="F14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G14" t="str">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="F15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G15" t="str">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="F16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G16" t="str">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="F17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G17" t="str">
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
